--- a/com.mercedesbenz/src/test/resources/mercendesbenzTestData.xlsx
+++ b/com.mercedesbenz/src/test/resources/mercendesbenzTestData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janna\IdeaProjects\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janna\IdeaProjects\Team1BootCamp\com.mercedesbenz\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2ED8D-B047-4ABF-AA4E-997B67673F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA32439-25AC-452F-B685-9BFA3B44D61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="855" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedia" sheetId="1" r:id="rId1"/>
-    <sheet name="Ebay" sheetId="2" r:id="rId2"/>
+    <sheet name="class" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
     <sheet name="CBSSports" sheetId="3" r:id="rId3"/>
     <sheet name="ATT" sheetId="4" r:id="rId4"/>
     <sheet name="BankOfAmerica" sheetId="5" r:id="rId5"/>
@@ -38,9 +38,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>A-Class</t>
+  </si>
+  <si>
+    <t>C-Class</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>E-Class</t>
+  </si>
+  <si>
+    <t>EQS</t>
+  </si>
+  <si>
+    <t>G-Class</t>
+  </si>
+  <si>
+    <t>GLA</t>
+  </si>
+  <si>
+    <t>GLB</t>
+  </si>
+  <si>
+    <t>GLC</t>
+  </si>
+  <si>
+    <t>GLE</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>S-Class</t>
+  </si>
+  <si>
+    <t>AMG C 63 Sedan</t>
+  </si>
+  <si>
+    <t>C 300 Sedan</t>
+  </si>
+  <si>
+    <t>C 300 4MATIC Sedan</t>
+  </si>
+  <si>
+    <t>AMG C 63 S Sedan</t>
+  </si>
+  <si>
+    <t>AMG C 43 Sedan</t>
+  </si>
+  <si>
+    <t>C 300 4MATIC Coupe</t>
+  </si>
+  <si>
+    <t>AMG C 63 S Coupe</t>
+  </si>
+  <si>
+    <t>C 300 Cabriolet</t>
+  </si>
+  <si>
+    <t>C 300 4MATIC Cabriolet</t>
+  </si>
+  <si>
+    <t>AMG C 43 Coupe</t>
+  </si>
+  <si>
+    <t>AMG C 63 S Cabriolet</t>
+  </si>
+  <si>
+    <t>C 300 Coupe</t>
+  </si>
+  <si>
+    <t>AMG C 63 Coupe</t>
+  </si>
+  <si>
+    <t>AMG C 43 Cabriolet</t>
+  </si>
+  <si>
+    <t>AMG C 63 Cabriolet</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -392,12 +485,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -474,14 +648,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -564,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06E338-1C0F-45E0-B136-3FC6897D7CEC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
